--- a/Semantic_Analysis/Result/Semantic_Analysis_Results.xlsx
+++ b/Semantic_Analysis/Result/Semantic_Analysis_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master_Of_Engg_IT\SE Project\Aman-Patel\semantic-analysis\Semantic_Analysis\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Master_Of_Engg_IT\SE Project\Development\semantic-analysis\Semantic_Analysis\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACCD9AC-6F68-4DCF-96AD-D822AE77A9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B50DE49-CA75-45CC-9394-BC4E9C638C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Words Vs Categories" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1293,7 +1292,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1307,11 +1306,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Resume vs Skills</a:t>
+              <a:t>Resume</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> (text-embedding-3-large)</a:t>
+              <a:t> Vs Skills (text-embedding-3-large)</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN"/>
           </a:p>
@@ -1330,7 +1329,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1357,42 +1356,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -1401,52 +1371,49 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-9A6B-422B-A1EA-0DC4138FA978}"/>
+                <c16:uniqueId val="{00000003-963D-4F7E-A2D8-E86C7A27635C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>[2]Sheet1!$B$2:$C$16</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="15"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Resume (Software Developer)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Resume (Software Developer)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Software  Developer</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Fashion Designer</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Job Skill Vs Resume'!$B$2:$C$16</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Job Skill Vs Resume'!$B$2:$B$16</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Job Skill Vs Resume'!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Software  Developer</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fashion Designer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet1!$D$2:$D$16</c:f>
+              <c:f>'Job Skill Vs Resume'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1461,7 +1428,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9A6B-422B-A1EA-0DC4138FA978}"/>
+              <c16:uniqueId val="{00000000-963D-4F7E-A2D8-E86C7A27635C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1473,12 +1440,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="1564755631"/>
-        <c:axId val="1564756111"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="215276080"/>
+        <c:axId val="215271280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1564755631"/>
+        <c:axId val="215276080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1458,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1521,7 +1489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564756111"/>
+        <c:crossAx val="215271280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1529,7 +1497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1564756111"/>
+        <c:axId val="215271280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564755631"/>
+        <c:crossAx val="215276080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,7 +1772,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[3]Sheet1!$A$2:$A$3</c:f>
+              <c:f>[2]Sheet1!$A$2:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1818,7 +1786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]Sheet1!$B$2:$B$3</c:f>
+              <c:f>[2]Sheet1!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2104,7 +2072,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[4]Sheet1!$A$2:$A$3</c:f>
+              <c:f>[3]Sheet1!$A$2:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2118,7 +2086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[4]Sheet1!$B$2:$B$3</c:f>
+              <c:f>[3]Sheet1!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2398,7 +2366,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[4]Sheet1!$A$22:$A$23</c:f>
+              <c:f>[3]Sheet1!$A$22:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2412,7 +2380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[4]Sheet1!$B$22:$B$23</c:f>
+              <c:f>[3]Sheet1!$B$22:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3719,7 +3687,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3730,7 +3698,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3743,7 +3711,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -3760,7 +3728,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3776,7 +3744,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3820,35 +3788,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3860,31 +3828,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3986,8 +3953,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4077,20 +4050,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4103,17 +4076,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4145,7 +4107,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4154,13 +4116,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4214,8 +4177,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6279,29 +6248,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF07FB89-63DE-4173-95C1-56AC5E110FDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2722AFDB-385E-474B-DA84-D72D088BF1C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6809,91 +6776,20 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2" t="str">
-            <v>Software  Developer</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Resume (Software Developer)</v>
-          </cell>
-          <cell r="D2">
-            <v>0.58110692939999997</v>
+          <cell r="A2" t="str">
+            <v xml:space="preserve">Water Pollution </v>
+          </cell>
+          <cell r="B2">
+            <v>0.356727952971997</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3"/>
-          <cell r="C3"/>
-          <cell r="D3"/>
-        </row>
-        <row r="4">
-          <cell r="B4"/>
-          <cell r="C4"/>
-          <cell r="D4"/>
-        </row>
-        <row r="5">
-          <cell r="B5"/>
-          <cell r="C5"/>
-          <cell r="D5"/>
-        </row>
-        <row r="6">
-          <cell r="B6"/>
-          <cell r="C6"/>
-          <cell r="D6"/>
-        </row>
-        <row r="7">
-          <cell r="B7"/>
-          <cell r="C7"/>
-          <cell r="D7"/>
-        </row>
-        <row r="8">
-          <cell r="B8"/>
-          <cell r="C8"/>
-          <cell r="D8"/>
-        </row>
-        <row r="9">
-          <cell r="B9"/>
-          <cell r="C9"/>
-          <cell r="D9"/>
-        </row>
-        <row r="10">
-          <cell r="B10"/>
-          <cell r="C10"/>
-          <cell r="D10"/>
-        </row>
-        <row r="11">
-          <cell r="B11"/>
-          <cell r="C11"/>
-          <cell r="D11"/>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Fashion Designer</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Resume (Software Developer)</v>
-          </cell>
-          <cell r="D12">
-            <v>0.35094846349999997</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13"/>
-          <cell r="C13"/>
-          <cell r="D13"/>
-        </row>
-        <row r="14">
-          <cell r="B14"/>
-          <cell r="C14"/>
-          <cell r="D14"/>
-        </row>
-        <row r="15">
-          <cell r="B15"/>
-          <cell r="C15"/>
-          <cell r="D15"/>
-        </row>
-        <row r="16">
-          <cell r="B16"/>
-          <cell r="C16"/>
-          <cell r="D16"/>
+          <cell r="A3" t="str">
+            <v>Deep Learning</v>
+          </cell>
+          <cell r="B3">
+            <v>0.58031977841148097</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -6902,39 +6798,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v xml:space="preserve">Water Pollution </v>
-          </cell>
-          <cell r="B2">
-            <v>0.356727952971997</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Deep Learning</v>
-          </cell>
-          <cell r="B3">
-            <v>0.58031977841148097</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -7248,7 +7111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5D8BA-BFCA-4D84-8833-B84A9F6C8A0C}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -7584,8 +7447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03058CC1-210E-4482-AB67-E8AF025A2282}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7855,7 +7718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AD7B05-A3A5-4A64-81CA-53F7616FA753}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
